--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity.sharepoint.com/sites/ProjectLab3/Shared Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{B0F3E9D2-CF98-42C7-940C-26926E28A20E}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{ABD21C5C-7D76-4FF1-90C5-AC9E14AD2017}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="101_{616F6931-40A8-44E6-B7D2-82C06F6BC481}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6A4107AE-E0AE-4D03-AE3E-752AD4E04F57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Materials Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Production Cost" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Running Total</t>
   </si>
@@ -207,12 +209,69 @@
     <t>MCUs for Devices</t>
   </si>
   <si>
-    <t> $.99-5.00</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
+    <t>Stepper motor</t>
+  </si>
+  <si>
+    <t>sparkfun.com</t>
+  </si>
+  <si>
+    <t>ROB-09238</t>
+  </si>
+  <si>
+    <t>EasyDriver - Stepper Motor Driver</t>
+  </si>
+  <si>
+    <t>ROB-12779</t>
+  </si>
+  <si>
+    <t>SainSmart 2-Channel 5V Relay Module</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>Zigbee Modules</t>
+  </si>
+  <si>
+    <t>XB24CZ7PIT-004</t>
+  </si>
+  <si>
+    <t>MCU Development Kit</t>
+  </si>
+  <si>
+    <t>$25-30</t>
+  </si>
+  <si>
+    <t>Gereen Board Order</t>
+  </si>
+  <si>
+    <t>Stockroom</t>
+  </si>
+  <si>
+    <t>Interface Dev. Tool USB to Serial</t>
+  </si>
+  <si>
+    <t>713-31799027</t>
+  </si>
+  <si>
+    <t>LM7341MF/NOPB</t>
+  </si>
+  <si>
+    <t>Wires for testing</t>
+  </si>
+  <si>
+    <t>MSP430G2553 chip</t>
+  </si>
+  <si>
+    <t>mouser.com</t>
+  </si>
+  <si>
+    <t>MSP430G2533</t>
+  </si>
+  <si>
     <t>Pushbutton Apem Isr3Sad600</t>
   </si>
   <si>
@@ -223,45 +282,6 @@
   </si>
   <si>
     <t>Banggood.com</t>
-  </si>
-  <si>
-    <t>SainSmart 2-Channel 5V Relay Module</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>Zigbee Modules</t>
-  </si>
-  <si>
-    <t>XB24CZ7PIT-004</t>
-  </si>
-  <si>
-    <t>MCU Development Kit</t>
-  </si>
-  <si>
-    <t>$25-30</t>
-  </si>
-  <si>
-    <t>Gereen Board Order</t>
-  </si>
-  <si>
-    <t>Stockroom</t>
-  </si>
-  <si>
-    <t>Interface Dev. Tool USB to Serial</t>
-  </si>
-  <si>
-    <t>713-31799027</t>
-  </si>
-  <si>
-    <t>LM7341MF/NOPB</t>
-  </si>
-  <si>
-    <t>Wires for testing</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
   </si>
 </sst>
 </file>
@@ -277,7 +297,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yy"/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -393,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -665,34 +685,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
@@ -736,7 +728,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,27 +856,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,707 +1200,707 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <v>43358</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22">
-        <v>43383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="J2" s="21">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>43435</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>18</v>
       </c>
-      <c r="C4" s="27">
-        <v>37</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="26">
+        <v>75</v>
+      </c>
+      <c r="D4" s="27">
         <f t="shared" ref="D4:D6" si="0">B4*C4</f>
-        <v>666</v>
-      </c>
-      <c r="E4" s="27">
+        <v>1350</v>
+      </c>
+      <c r="E4" s="26">
         <v>18</v>
       </c>
-      <c r="F4" s="27">
-        <v>150</v>
-      </c>
-      <c r="G4" s="28">
+      <c r="F4" s="26">
+        <v>100</v>
+      </c>
+      <c r="G4" s="27">
         <f t="shared" ref="G4:G7" si="1">E4*F4</f>
-        <v>2700</v>
-      </c>
-      <c r="H4" s="50" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
-        <v>30</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="26">
+        <v>102</v>
+      </c>
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="E5" s="27">
+        <v>1836</v>
+      </c>
+      <c r="E5" s="26">
         <v>18</v>
       </c>
-      <c r="F5" s="27">
-        <v>150</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="F5" s="26">
+        <v>100</v>
+      </c>
+      <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>18</v>
       </c>
-      <c r="C6" s="27">
-        <v>40</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="26">
+        <v>94</v>
+      </c>
+      <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="E6" s="27">
+        <v>1692</v>
+      </c>
+      <c r="E6" s="26">
         <v>18</v>
       </c>
-      <c r="F6" s="27">
-        <v>150</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F6" s="26">
+        <v>100</v>
+      </c>
+      <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>18</v>
       </c>
-      <c r="C7" s="30">
-        <v>42</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="29">
+        <v>95</v>
+      </c>
+      <c r="D7" s="30">
         <f>C7*B7</f>
-        <v>756</v>
-      </c>
-      <c r="E7" s="27">
+        <v>1710</v>
+      </c>
+      <c r="E7" s="26">
         <v>18</v>
       </c>
-      <c r="F7" s="30">
-        <v>150</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="F7" s="29">
+        <v>100</v>
+      </c>
+      <c r="G7" s="30">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="33">
+      <c r="B8" s="28"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="32">
         <f>SUM(D4:D6)</f>
-        <v>1926</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="33">
+        <v>4878</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="32">
         <f>SUM(G4:G6)</f>
-        <v>8100</v>
-      </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+        <v>5400</v>
+      </c>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <f>SUM(D4:D6)</f>
-        <v>1926</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f>SUM(G4:G6)</f>
-        <v>8100</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+        <v>5400</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <f>D10*C11</f>
-        <v>1926</v>
-      </c>
-      <c r="E11" s="43" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <f>G10*F11</f>
-        <v>8100</v>
-      </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="40" t="s">
+        <v>5400</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="45">
+      <c r="B12" s="28"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="44">
         <f>SUM(D10:D11)</f>
-        <v>3852</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="45">
+        <v>9756</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="44">
         <f>SUM(G10:G11)</f>
-        <v>16200</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="15" t="s">
+        <v>10800</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="41">
-        <f>'Materials Cost'!I3</f>
-        <v>387.02000000000004</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="41">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="40">
+        <f>'Materials Cost'!H3</f>
+        <v>361.86</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="40">
         <v>0</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="26" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="40" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="33">
+      <c r="B16" s="28"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="32">
         <f>D14</f>
-        <v>387.02000000000004</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="47">
+        <v>361.86</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="46">
         <f>G14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75">
-      <c r="A17" s="38"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75">
-      <c r="A18" s="15" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="51" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="51">
         <v>2851</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <v>0.01</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <f t="shared" ref="D19:D22" si="2">B19*C19*(J19/7)</f>
         <v>313.61</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="51">
         <v>2851</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="52">
         <v>0.01</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f t="shared" ref="G19:G22" si="3">E19*F19*(ABS($J$1-$J$3)/7)</f>
         <v>313.61</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>43358</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="53">
         <v>43435</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="54">
         <f>ABS($I$19-$H$19)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="51">
         <v>292.5</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="52">
         <v>0.01</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <f t="shared" si="2"/>
         <v>32.175000000000004</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <v>292.5</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <v>0.01</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f t="shared" si="3"/>
         <v>32.175000000000004</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="55">
         <v>43358</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="53">
         <v>43435</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="54">
         <f>ABS($I$20-$H$20)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="51">
         <v>259</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>0.01</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <f t="shared" si="2"/>
         <v>28.49</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="51">
         <v>259</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="52">
         <v>0.01</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <f t="shared" si="3"/>
         <v>28.49</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="55">
         <v>43358</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="53">
         <v>43435</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="54">
         <f>ABS($I$21-$H$21)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <v>699</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="52">
         <v>0.01</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <f t="shared" si="2"/>
         <v>76.89</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <v>699</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="52">
         <v>0.01</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <f t="shared" si="3"/>
         <v>76.89</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="55">
         <v>43358</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="53">
         <v>43435</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="54">
         <f>ABS($I$22-$H$22)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="26"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75">
-      <c r="A24" s="40" t="s">
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="45">
+      <c r="B24" s="28"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="44">
         <f>SUM(D19:D22)</f>
         <v>451.16500000000002</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="45">
+      <c r="E24" s="28"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="44">
         <f>SUM(G19:G22)</f>
         <v>451.16500000000002</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75">
-      <c r="A25" s="38"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="57" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="33">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="32">
         <f>SUM(D16+D24)</f>
-        <v>838.18500000000006</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="33">
+        <v>813.02500000000009</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="32">
         <f>SUM(G16,G24)</f>
         <v>451.16500000000002</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75">
-      <c r="A27" s="38"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="40" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="45">
+      <c r="B28" s="28"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="44">
         <f>SUM(D26,D12)</f>
-        <v>4690.1850000000004</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="45">
+        <v>10569.025</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="44">
         <f>SUM(G26,G12)</f>
-        <v>16651.165000000001</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75">
-      <c r="A29" s="42" t="s">
+        <v>11251.165000000001</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="44">
+      <c r="B29" s="28"/>
+      <c r="C29" s="43">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="40">
         <f>D28*C29</f>
-        <v>2579.6017500000003</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="44">
+        <v>5812.9637499999999</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="43">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <f>G28*F29</f>
-        <v>9158.1407500000005</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="42"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="79" t="s">
+        <v>6188.1407500000014</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="J30" s="33">
+      <c r="I30" s="82"/>
+      <c r="J30" s="32">
         <f>G31-D31</f>
-        <v>18539.519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="59" t="s">
+        <v>1057.3170000000027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="44">
         <f>SUM(D29+D28)</f>
-        <v>7269.7867500000011</v>
-      </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="60" t="s">
+        <v>16381.98875</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="44">
         <f>SUM(G29+G28)</f>
-        <v>25809.30575</v>
-      </c>
-      <c r="H31" s="80" t="s">
+        <v>17439.305750000003</v>
+      </c>
+      <c r="H31" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="J31" s="61">
+      <c r="I31" s="84"/>
+      <c r="J31" s="60">
         <f>D31-G31</f>
-        <v>-18539.519</v>
+        <v>-1057.3170000000027</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1913,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup scale="83" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1929,19 +1923,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1963,311 +1957,606 @@
       <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>69</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
         <v>69</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="62">
+        <f>SUM(F2:F187)</f>
+        <v>361.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6">
+        <v>21</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="61">
+        <v>14.95</v>
+      </c>
+      <c r="C6" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="61">
+        <v>14.95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="61">
+        <v>14.95</v>
+      </c>
+      <c r="C7" s="65">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="61">
+        <v>14.95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="61">
+        <v>8.99</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="61">
+        <v>8.99</v>
+      </c>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="61">
+        <v>17.5</v>
+      </c>
+      <c r="C9" s="65">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="61">
+        <v>87.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="65">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="68">
+        <v>60</v>
+      </c>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="66">
+        <v>30</v>
+      </c>
+      <c r="C11" s="65">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="66">
+        <v>60</v>
+      </c>
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="61">
+        <v>1.95</v>
+      </c>
+      <c r="C12" s="65">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1.92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="61">
+        <v>2.56</v>
+      </c>
+      <c r="C13" s="65">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="61">
+        <f>SUM(B13*C13)</f>
+        <v>5.12</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="66">
+        <v>12</v>
+      </c>
+      <c r="C14" s="65">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="66">
+        <v>12</v>
+      </c>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="61">
+        <v>2.59</v>
+      </c>
+      <c r="C15" s="65">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="61">
+        <v>5.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47096A76-D02D-4A7B-B259-7535F52FB502}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6">
+        <v>69</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.41</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="7">
+      <c r="E3" s="6">
         <v>0.81</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="63">
-        <f>SUM(F2:F188)</f>
-        <v>387.02000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="74">
+        <f>SUM(E2:E188)</f>
+        <v>328.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.44</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
         <v>0.44</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="65" t="s">
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="64">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7">
-        <v>30</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="E5" s="6">
+        <f xml:space="preserve"> B5 * C5</f>
+        <v>3.42</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="62">
+        <v>80</v>
+      </c>
+      <c r="B6" s="61">
         <v>15.6</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="65">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="62">
+      <c r="E6" s="61">
         <v>15.6</v>
       </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="76"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="62">
+        <v>82</v>
+      </c>
+      <c r="B7" s="61">
         <v>15.64</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="62">
+        <v>83</v>
+      </c>
+      <c r="E7" s="61">
         <v>15.64</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="70" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="61">
         <v>8.99</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="62">
+      <c r="E8" s="61">
         <v>8.99</v>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="61">
         <v>17.5</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="65">
         <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="62">
+      <c r="E9" s="61">
         <v>87.5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="65">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="68">
         <v>60</v>
       </c>
-      <c r="F10" s="69">
-        <v>60</v>
-      </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="66">
         <v>30</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="65">
         <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="67">
+      <c r="E11" s="66">
         <v>60</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <v>1.95</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="65">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="62">
+      <c r="E12" s="61">
         <v>1.92</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="61">
         <v>2.56</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="65">
         <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="62">
+      <c r="E13" s="61">
         <f>SUM(B13*C13)</f>
         <v>5.12</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="67">
-        <v>12</v>
-      </c>
-      <c r="C14" s="66">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="67">
-        <v>12</v>
-      </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="67">
-        <v>20</v>
-      </c>
-      <c r="F15" s="67">
-        <v>20</v>
-      </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="66"/>
+      <c r="C14" s="65"/>
+      <c r="E14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="66"/>
+      <c r="E15" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1B22A1172885C42B4C17DDA9CF5B338" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d220f669ff86428cf9283b69f2854026">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3d155d2-d32a-44a7-9afe-bbea3de853a7" xmlns:ns3="f75ba893-ee13-47ce-83cc-19c595ba784b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eae2b4f3fb4df1e11babf1931c406ee" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1B22A1172885C42B4C17DDA9CF5B338" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="629f80d9a8581f379ff066b58528b564">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3d155d2-d32a-44a7-9afe-bbea3de853a7" xmlns:ns3="f75ba893-ee13-47ce-83cc-19c595ba784b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29670cef0780f2ed14e7a3774b3c37a1" ns2:_="" ns3:_="">
     <xsd:import namespace="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
     <xsd:import namespace="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
     <xsd:element name="properties">
@@ -2280,6 +2569,7 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2298,6 +2588,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2430,15 +2725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2446,13 +2732,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2029320F-C3C9-464C-BCBD-CFAB0564D458}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB45803D-FF06-498E-9DAA-3ABBE1BFBBC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB45803D-FF06-498E-9DAA-3ABBE1BFBBC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2363D0F0-F389-4D9D-8C75-EB69454E66FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
+    <ds:schemaRef ds:uri="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A17868-C7D2-4072-9830-29F395C46A75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A17868-C7D2-4072-9830-29F395C46A75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>